--- a/db/환승 경로.xlsx
+++ b/db/환승 경로.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F61213-2AC9-476B-8937-AA6D88480DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ICN-AI-chatbot\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDB1B0-C329-4D26-B812-3A1954E1280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="4380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>origin_terminal</t>
   </si>
@@ -100,17 +103,68 @@
     <t>도착 게이트에서 보안검색장 방향으로 이동하면서 환승 안내 표지판을 따라 2층 보안검색장으로 갑니다.
 검색 후 에스컬레이터를 타고 3층 출발 게이트로 올라가 항공기에 탑승합니다.</t>
   </si>
+  <si>
+    <t>국내선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 3층 출국장으로 이동합니다. 이곳에서 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 제2터미널로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 제2터미널로 이동합니다. 제2터미널 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
+  </si>
+  <si>
+    <t>국제선으로 제1터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 환승 표지판을 따라 이동하여 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
+  </si>
+  <si>
+    <t>국제선으로 제2터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
+  </si>
+  <si>
+    <t>P03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 탑승동으로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 탑승동으로 이동합니다. 탑승동 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제선으로 탑승동에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,9 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,18 +530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="82.5">
+    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="115.5">
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="115.5">
+    <row r="5" spans="1:3" ht="102" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -539,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="68" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -550,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99">
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -561,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="148.5">
+    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -572,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -583,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -594,7 +651,75 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/환승 경로.xlsx
+++ b/db/환승 경로.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ICN-AI-chatbot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDB1B0-C329-4D26-B812-3A1954E1280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA67D75-A260-49A3-8EC1-E3FBF2BF59F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,31 +112,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 3층 출국장으로 이동합니다. 이곳에서 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
-  </si>
-  <si>
     <t>P02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 제2터미널로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 제2터미널로 이동합니다. 제2터미널 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
-  </si>
-  <si>
-    <t>국제선으로 제1터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 환승 표지판을 따라 이동하여 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
-  </si>
-  <si>
-    <t>국제선으로 제2터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
-  </si>
-  <si>
     <t>P03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 탑승동으로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 탑승동으로 이동합니다. 탑승동 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국제선으로 탑승동에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다.</t>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 3층 출국장으로 이동합니다. 환승 안내 표지판을 잘 따라가세요. 이곳에서 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.) 휠체어 지원이 필요하면 공항 직원에게 요청하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 탑승동으로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 탑승동으로 이동합니다. 탑승동 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.) **곳곳에 환승 도우미가 대기하고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내선(제1터미널)에 도착 후, 국제선 환승 전용 내항기 이용 승객에 한하여 국제선 환승을 위해 제2터미널로 이동해야 합니다. 3층 출국장으로 이동하여 터미널 간 셔틀트레인(B1층)을 이용하여 제2터미널로 이동합니다. 제2터미널 도착 후 국제선 항공편 탑승을 위한 수속(체크인, 수하물 위탁 등)을 진행합니다. 탑승권 확인 후 해당 게이트로 이동하여 탑승합니다. (참고: 대구발 승객은 국제선 환승 시 보안검색을 꼭 받아야 합니다.) 이동통로 표시를 따라 이동하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제선으로 제1터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 환승 표지판을 따라 이동하여 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다. 휠체어 지원이 필요하시면 언제든 요청하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제선으로 탑승동에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다. 환승 도우미가 친절하게 안내해 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제선으로 제2터미널에 도착 후, 국제선 환승 전용 내항기(부산, 대구 노선) 이용 승객에 한하여 국내선 환승을 위해 제1터미널로 이동해야 합니다. 환승 표지판을 따라 셔틀트레인(B1층)을 이용하여 제1터미널로 이동합니다. 제1터미널 도착 후 환승 보안검색을 받습니다. 탑승권이 없는 경우 환승데스크에서 발급받을 수 있습니다. 환승 여객은 보안 구역 내에서 이동하며, 입국장 밖으로 나가실 수 없습니다. 출발 게이트로 이동하여 탑승합니다. 모든 이동통로에 명확한 표시가 되어 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -651,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -659,18 +663,18 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.45">
@@ -678,13 +682,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="102" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -692,29 +696,29 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
